--- a/sigml2check/Avatar sentences.xlsx
+++ b/sigml2check/Avatar sentences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lykeesselink/Dropbox/Uni/Website/signlab/sigml2check/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E33CA0-266A-D045-99A1-F3102CF5B752}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46643094-1503-EA42-94C0-E85E5DFC2DA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{9714BCE5-7BEA-824E-A877-BA3689A09BF2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="483">
   <si>
     <t>['Ik ga U over ... minuten meer uitleggen.',</t>
   </si>
@@ -239,9 +239,6 @@
     <t xml:space="preserve"> 'Ik kom het infuus controleren (of het nog goed loopt).',</t>
   </si>
   <si>
-    <t xml:space="preserve"> 'Er gebeuren vandaag geen onderzoeken of gesprekken meer.',</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 'Tablet',</t>
   </si>
   <si>
@@ -878,9 +875,6 @@
     <t>MRI NIET GOED</t>
   </si>
   <si>
-    <t>NIET_GOED?</t>
-  </si>
-  <si>
     <t>SCINTIGRAFIE GOED</t>
   </si>
   <si>
@@ -974,9 +968,6 @@
     <t>OVER .. MINUUT ARTS INDEX_3A U UITLEGGEN INDEX_3A</t>
   </si>
   <si>
-    <t>VANDAAG ONDERZOEK GESPREKKEN AFGELOPEN_01_/_KLAAR_02_NU_MOET_HET_AFGELOPEN_ZIJN</t>
-  </si>
-  <si>
     <t>U NIER WAARDE TE HOOG U</t>
   </si>
   <si>
@@ -1020,13 +1011,484 @@
   </si>
   <si>
     <t>MEET, MONITOR</t>
+  </si>
+  <si>
+    <t>Goedemorgen.:"",</t>
+  </si>
+  <si>
+    <t>Goedemiddag.:"",</t>
+  </si>
+  <si>
+    <t>Goedenavond.:"",</t>
+  </si>
+  <si>
+    <t>Tot ziens.:"",</t>
+  </si>
+  <si>
+    <t>Tot morgen.:"",</t>
+  </si>
+  <si>
+    <t>Heeft U goed geslapen?:"",</t>
+  </si>
+  <si>
+    <t>Welterusten.:"",</t>
+  </si>
+  <si>
+    <t>Eet smakelijk.:"",</t>
+  </si>
+  <si>
+    <t>Ik kom op een later moment terug.:"",</t>
+  </si>
+  <si>
+    <t>Ik moet even weg.:"",</t>
+  </si>
+  <si>
+    <t>Sorry, ik heb geen tijd.:"",</t>
+  </si>
+  <si>
+    <t>Ik ga U een nieuw infuus geven.:"",</t>
+  </si>
+  <si>
+    <t>De arts gaat U een nieuw infuus geven.:"",</t>
+  </si>
+  <si>
+    <t>De verpleegkundige gaat U een nieuw infuus geven.:"",</t>
+  </si>
+  <si>
+    <t>Een laborant komt  in de ochtend bloedprikken.:"",</t>
+  </si>
+  <si>
+    <t>Een laborant komt in de middag bloedprikken.:"",</t>
+  </si>
+  <si>
+    <t>Een co-assistent (student in opleiding tot arts) komt bloedprikken.:"",</t>
+  </si>
+  <si>
+    <t>Een collega komt bloedprikken.:"",</t>
+  </si>
+  <si>
+    <t>Sorry, het lukt mij niet het infuus te prikken. Ik ga een collega vragen.:"",</t>
+  </si>
+  <si>
+    <t>De bloeduitslagen zijn goed.:"",</t>
+  </si>
+  <si>
+    <t>De bloeduitslagen zijn niet helemaal goed.:"",</t>
+  </si>
+  <si>
+    <t>De uitslag van de CT scan is goed.:"",</t>
+  </si>
+  <si>
+    <t>De uitslag van de CT scan is niet helemaal goed.:"",</t>
+  </si>
+  <si>
+    <t>Heeft U pijn?:"",</t>
+  </si>
+  <si>
+    <t>Waar heeft U pijn?:"",</t>
+  </si>
+  <si>
+    <t>Wat voor soort pijn heeft U? Drukkend, stekend, krampend of anders omschrijven?:"",</t>
+  </si>
+  <si>
+    <t>Ik kom het infuus controleren (of het nog goed loopt).:"",</t>
+  </si>
+  <si>
+    <t>U moet in bed blijven.:"",</t>
+  </si>
+  <si>
+    <t>Ik ga nu het zuurstof kapje over uw neus en mond doen.:"",</t>
+  </si>
+  <si>
+    <t>Er gebeuren vandaag geen onderzoeken of gesprekken meer.:"",</t>
+  </si>
+  <si>
+    <t>De COVID-19 test is negatief, dit betekent dat U waarschijnlijk geen Corona heeft.:"",</t>
+  </si>
+  <si>
+    <t>Soms heeft de test het fout dus we gaan nog meer onderzoek doen.:"",</t>
+  </si>
+  <si>
+    <t>De COVID-19 test is positief, dit betekent dat U wel Corona heeft.:"",</t>
+  </si>
+  <si>
+    <t>We gaan in het bloed testen of U antistoffen tegen Corona heeft. Als U antistoffen heeft betekent dit dat U nu Corona heeft of dat U Corona heeft gehad in het verleden.:"",</t>
+  </si>
+  <si>
+    <t>De Coronatest in het bloed is negatief: u heeft geen antistoffen tegen Corona.:"",</t>
+  </si>
+  <si>
+    <t>De Coronatest in het bloed is positief: u heeft wel antistoffen tegen Corona.:"",</t>
+  </si>
+  <si>
+    <t>Met dit recept kunt U medicijnen ophalen bij de apotheek.:"",</t>
+  </si>
+  <si>
+    <t>Bent U ergens allergisch voor?:"",</t>
+  </si>
+  <si>
+    <t>Waar bent U allergisch voor?:"",</t>
+  </si>
+  <si>
+    <t>Gebruikt U medicijnen?:"",</t>
+  </si>
+  <si>
+    <t>Welke medicijnen gebruikt U?:"",</t>
+  </si>
+  <si>
+    <t>Kan iemand (thuis) een foto maken van de medicijnen die U gebruikt?:"",</t>
+  </si>
+  <si>
+    <t>Rookt U?:"",</t>
+  </si>
+  <si>
+    <t>Bent U weleens eerder (voor U zelf) in het ziekenhuis geweest?:"",</t>
+  </si>
+  <si>
+    <t>Welk ziekenhuis was U toen en waarom?:"",</t>
+  </si>
+  <si>
+    <t>Wanneer was dat?:"",</t>
+  </si>
+  <si>
+    <t>Zijn er mensen in Uw omgeving ziek?:"",</t>
+  </si>
+  <si>
+    <t>Welke apotheek komt U?:"",</t>
+  </si>
+  <si>
+    <t>Wie is uw huisarts?:"",</t>
+  </si>
+  <si>
+    <t>Wat is uw geboortedatum?:"",</t>
+  </si>
+  <si>
+    <t>Heeft U speciale dieetwensen? Zoals vegetarisch, veganistisch of bepaalde producten niet?:"",</t>
+  </si>
+  <si>
+    <t>Heeft U gehoorapparaten of een CI?:"",</t>
+  </si>
+  <si>
+    <t>Ik moet naar de wc.:"",</t>
+  </si>
+  <si>
+    <t>Moet U naar de wc?:"",</t>
+  </si>
+  <si>
+    <t>Kan ik U helpen?:"",</t>
+  </si>
+  <si>
+    <t>Ik ga U wassen.:"",</t>
+  </si>
+  <si>
+    <t>Ik ga U helpen met douchen.:"",</t>
+  </si>
+  <si>
+    <t>U moet in de douche op de stoel zitten.:"",</t>
+  </si>
+  <si>
+    <t>Wilt U videobellen?:"",</t>
+  </si>
+  <si>
+    <t>Zal ik U helpen zodat U kunt videobellen?:"",</t>
+  </si>
+  <si>
+    <t>Dit is de alarmknop, als U hierop drukt dan komt er iemand naar U toe.:"",</t>
+  </si>
+  <si>
+    <t>Wilt U een tv met teletekst zodat U de ondertiteling kunt aanzetten?:"",</t>
+  </si>
+  <si>
+    <t>Wat wilt U eten?:"",</t>
+  </si>
+  <si>
+    <t>Wat wilt U eten, kunt U het aanwijzen op de kaart?:"",</t>
+  </si>
+  <si>
+    <t>Wat wilt U drinken?:"",</t>
+  </si>
+  <si>
+    <t>Wat wilt U drinken, kunt U het aanwijzen op de kaart?:"",</t>
+  </si>
+  <si>
+    <t>Heeft U het warm?:"",</t>
+  </si>
+  <si>
+    <t>Heeft U het koud?:"",</t>
+  </si>
+  <si>
+    <t>Het bed gaat nu omhoog.:"",</t>
+  </si>
+  <si>
+    <t>Het bed gaat nu omlaag.:"",</t>
+  </si>
+  <si>
+    <t>Wie komt U ophalen?:"",</t>
+  </si>
+  <si>
+    <t>Ik help U.:"",</t>
+  </si>
+  <si>
+    <t>Wij helpen U.:"",</t>
+  </si>
+  <si>
+    <t>Heeft U op dit moment een huisgenoot met koorts en/ of benauwdheidsklachten?:"",</t>
+  </si>
+  <si>
+    <t>Heeft U de afgelopen 7 dagen een Corontest gehad? Zo ja, was deze positief? (dus dat je het virus hebt/had):"",</t>
+  </si>
+  <si>
+    <t>Heeft U een huisgenoot/ gezinslid met klachten van het Coronavirus?:"",</t>
+  </si>
+  <si>
+    <t>GOED_01 MORGEN_01_OCHTEND_01</t>
+  </si>
+  <si>
+    <t>GOED_01 MIDDAG_01</t>
+  </si>
+  <si>
+    <t>GOED_01 AVOND_01</t>
+  </si>
+  <si>
+    <t>TOT ZIENS</t>
+  </si>
+  <si>
+    <t>TOT MORGEN</t>
+  </si>
+  <si>
+    <t>U GOED SLAPEN U?</t>
+  </si>
+  <si>
+    <t>EET LEKKER_02</t>
+  </si>
+  <si>
+    <t>IK LATER TERUGKOMEN</t>
+  </si>
+  <si>
+    <t>IK EVEN WEG_/_WEG_ZIJN_02</t>
+  </si>
+  <si>
+    <t>SLAPEN LEKKER_02</t>
+  </si>
+  <si>
+    <t>SORRY TIJD_HEBBEN_NIET IK NIET</t>
+  </si>
+  <si>
+    <t>ARTS PERSOON KOMEN NIEUW INFUUS U</t>
+  </si>
+  <si>
+    <t>VERPLEEGKUNDIGE PERSOON KOMEN U NIEUW INFUUS</t>
+  </si>
+  <si>
+    <t>COASSISTENT KOMEN BLOED PRIKKEN</t>
+  </si>
+  <si>
+    <t>COLLEGA PERSOON KOMEN BLOED PRIKKEN</t>
+  </si>
+  <si>
+    <t>SORRY LUKKEN:_HET_WIL_MAAR_NIET_LUKKEN U INFUUS [PAUZE] IK COLLEGA ROEPEN_3</t>
+  </si>
+  <si>
+    <t>IK NU U NIEUW INFUUS</t>
+  </si>
+  <si>
+    <t>LABORANT KOMEN BLOED PRIKKEN</t>
+  </si>
+  <si>
+    <t>BLOED UITSLAGEN GOED</t>
+  </si>
+  <si>
+    <t>BLOED UITSLAGEN NIET_HELEMAAL_GOED</t>
+  </si>
+  <si>
+    <t>CT_SCAN INDEX_3B UITSLAG GOED</t>
+  </si>
+  <si>
+    <t>INDEX_3B CT_SCAN INDEX_3B UITSLAG NIET_HELEMAAL_GOED</t>
+  </si>
+  <si>
+    <t>PIJN HEBBEN U?</t>
+  </si>
+  <si>
+    <t>U LICHAAM U PIJN WAAR</t>
+  </si>
+  <si>
+    <t>U PIJN WAT? VOELEN DRUKKEND OF STEKEND OF KRAMPEND OF ANDERS? ASTJEBLIEFT VERTELLEN_2_1</t>
+  </si>
+  <si>
+    <t>U INFUUS IK CONTROLE_A GOED ONTWIKKELING</t>
+  </si>
+  <si>
+    <t>ASTUBLIEFT U BED BLIJVEN</t>
+  </si>
+  <si>
+    <t>U NEUS MOND NU ZUURSTOF_TOEDIENEN</t>
+  </si>
+  <si>
+    <t>VANDAAG ONDERZOEK_02 OF GESPREK NIET_MEER</t>
+  </si>
+  <si>
+    <t>NIET_MEER?</t>
+  </si>
+  <si>
+    <t>ONTWIKKELING</t>
+  </si>
+  <si>
+    <t>CORONA TEST UITSLAG NEGATIEF, BETEKENIS U CORONA HEBBEN WAARSCHIJNLIJK NIET</t>
+  </si>
+  <si>
+    <t>SOMS TEST INDEX_3B FOUT, WIJ MEER ONDERZOEK MOETEN</t>
+  </si>
+  <si>
+    <t>CORONA TEST UISTLAG POSITIEF, BEKEKENIS U CORONA HEBBEN</t>
+  </si>
+  <si>
+    <t>WIJ U BLOED TESTEN ONDERZOEK AANWEZIG ANTISTOFFEN [PAUZE] ALS AANWEZIG ANTISTOFFEN, BETEKENIS U NU CORONA AANWEZIG OF VERLEDEN KLAAR</t>
+  </si>
+  <si>
+    <t>CORONA TEST BLOED NEGATIEF [PAUZE] ANTISTOFFEN TEGEN CORONA HEBBEN U NIET</t>
+  </si>
+  <si>
+    <t>CORONA TEST BLOED POSITIEF [PAUZE] ANTISTOFFEN TEGEN CORONA HEBBEN U</t>
+  </si>
+  <si>
+    <t>INDEX_HAND RECEPT U KUNNEN APOTHEEK INDEX_3A GAAN_1_3A U RECEPT GEVEN_1_3A MEDICIJN HALEN_3A_1</t>
+  </si>
+  <si>
+    <t>U ALLERGIE HEBBEN_BEZIT?</t>
+  </si>
+  <si>
+    <t>U GEBRUIKEN MEDICIJNEN U?</t>
+  </si>
+  <si>
+    <t>U MEDICIJNEN GEBRUIKEN U WELKE?</t>
+  </si>
+  <si>
+    <t>U ROKEN U?</t>
+  </si>
+  <si>
+    <t>U MEDICIJNEN U [PAUZE] MISSCHIEN PERSOON THUIS INDEX_3 FOTO KUNNEN INDEX_3</t>
+  </si>
+  <si>
+    <t>U GELEDEN_01_EEN_TIJD_GELEDEN ZIEKENHUIS KLAAR U?</t>
+  </si>
+  <si>
+    <t>Klaar mondbeeld moet anders</t>
+  </si>
+  <si>
+    <t>U EERDER ZIEKENHUIS NAAR_BINNEN U INDEX_3 WAAR? NAAR_BINNEN WAAROM?</t>
+  </si>
+  <si>
+    <t>U OMGEVING U (??) MENSEN PERSONEN_VEEL INDEXEN_VEEL ZIEK AANWEZIG_VEEL PALM_OMHOOG</t>
+  </si>
+  <si>
+    <t>U GAAN_NAAR APOTHEEK INDEX_3 WAAR INDEX_3 NAAM WAT PALM_OMHOOG</t>
+  </si>
+  <si>
+    <t>U GEBOORTE_DATUM WAT</t>
+  </si>
+  <si>
+    <t>U HUISARTS PERSOON INDEX_3 WIE INDEX_3 PALM_OMHOOG</t>
+  </si>
+  <si>
+    <t>U DIEET WENSEN HEBBEN U? [PAUZE] VOORBEELD VEGETARISCH VEGANISTISCH PALM_OMHOOG</t>
+  </si>
+  <si>
+    <t>GEHOORAPPARAAT OF CI HEBBEN_BEZIT?</t>
+  </si>
+  <si>
+    <t>IK NODIG GAAN_NAAR WC IK</t>
+  </si>
+  <si>
+    <t>U NODIG GAAN WC U?</t>
+  </si>
+  <si>
+    <t>PALM_OMHOOG KUNNEN IK HELPEN U PALM_OMHOOG?</t>
+  </si>
+  <si>
+    <t>NU IK U WASSEN</t>
+  </si>
+  <si>
+    <t>U DOUCHEN HELPEN_1_2</t>
+  </si>
+  <si>
+    <t>HELPEN_1_2</t>
+  </si>
+  <si>
+    <t>DOUCHE BINNEN STOEL AANWEZIG [PAUZE] AUSTUBLIEFT U HIER ZITTEN</t>
+  </si>
+  <si>
+    <t>U WILLEN VIDEOBELLEN U?</t>
+  </si>
+  <si>
+    <t>U NODIG HELPEN U VIDEOBELLEN U?</t>
+  </si>
+  <si>
+    <t>INDEX_3A ALARM [PAUZE] ALS U INDEX_3A DRUKKEN [PAUZE] PERSOON KOMEN</t>
+  </si>
+  <si>
+    <t>U WILLEN TV KIJKEN ONDERTITELING? [PAUZE, KNIKKEN] WIJ REGELEN</t>
+  </si>
+  <si>
+    <t>ETEN WAT U? ASTJEBLIEFT KAART_3 AANWIJZEN_3 U</t>
+  </si>
+  <si>
+    <t>DRINKEN WAT U? ASTJEBLIEFT KAART_3 AANWIJZEN_3 U</t>
+  </si>
+  <si>
+    <t>U KOUD?</t>
+  </si>
+  <si>
+    <t>U WARM?</t>
+  </si>
+  <si>
+    <t>ETEN WAT U?</t>
+  </si>
+  <si>
+    <t>DRINKEN WAT U?</t>
+  </si>
+  <si>
+    <t>SLAPEN BED NU OMHOOG</t>
+  </si>
+  <si>
+    <t>SLAPEN BED NU OMLAAG</t>
+  </si>
+  <si>
+    <t>WIE OPHALEN U?</t>
+  </si>
+  <si>
+    <t>IK HELPEN U</t>
+  </si>
+  <si>
+    <t>WIJ HELPEN U</t>
+  </si>
+  <si>
+    <t>U NU HEBBEN HUISGENOOT INDEX_3 INDEX_3 VERKOUDEN_ZIJN OF KOORTS?</t>
+  </si>
+  <si>
+    <t>TIJD_TOT_NU 7 DAGEN CORONA TEST PALM_OMHOOG; JA UITSLAG POSITIEF PALM_OMHOOG</t>
+  </si>
+  <si>
+    <t>U HEBBEN HUISGENOOT INDEX_3 CORONA KLACHTEN TELWOORDEN HEBBEN INDEX_3</t>
+  </si>
+  <si>
+    <t>GAAN_1_3A, GEVEN_1_3A HALEN_3A_1</t>
+  </si>
+  <si>
+    <t>U EERDER ZIEKENHUIS NAAR_BINNEN U INDEX_3 WAAR? NAAR_BINNEN WANNEER?</t>
+  </si>
+  <si>
+    <t>U ALLERGIE VOOR WAT?</t>
+  </si>
+  <si>
+    <t>NIET_GOED -&gt; SLECHT?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1037,6 +1499,13 @@
     <font>
       <sz val="24"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1062,11 +1531,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1381,16 +1851,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B748D48-8179-CE40-8734-2A60592969FC}">
-  <dimension ref="A1:C170"/>
+  <dimension ref="A1:C245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="105.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="97.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="97.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1399,10 +1869,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1415,7 +1885,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1438,10 +1908,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1449,7 +1919,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1457,7 +1927,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1465,7 +1935,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1473,10 +1943,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1484,7 +1954,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1492,7 +1962,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1500,7 +1970,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1508,7 +1978,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1516,7 +1986,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1524,7 +1994,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1532,7 +2002,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1540,7 +2010,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1548,7 +2018,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="64" x14ac:dyDescent="0.35">
@@ -1556,7 +2026,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="64" x14ac:dyDescent="0.35">
@@ -1564,7 +2034,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="64" x14ac:dyDescent="0.35">
@@ -1572,7 +2042,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1580,7 +2050,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1603,7 +2073,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1631,7 +2101,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1639,7 +2109,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1647,18 +2117,18 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="64" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>281</v>
+        <v>482</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1666,7 +2136,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1674,7 +2144,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1682,7 +2152,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1690,7 +2160,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1698,7 +2168,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1706,7 +2176,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1714,10 +2184,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1725,7 +2195,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1733,7 +2203,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1741,7 +2211,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1749,7 +2219,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1757,7 +2227,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1765,7 +2235,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1773,7 +2243,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1781,7 +2251,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1789,7 +2259,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1797,7 +2267,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1805,7 +2275,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1813,10 +2283,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1824,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1832,7 +2302,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1840,7 +2310,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1848,7 +2318,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1856,7 +2326,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1864,10 +2334,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="64" x14ac:dyDescent="0.35">
@@ -1875,7 +2345,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="64" x14ac:dyDescent="0.35">
@@ -1883,7 +2353,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="64" x14ac:dyDescent="0.35">
@@ -1891,7 +2361,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="64" x14ac:dyDescent="0.35">
@@ -1899,7 +2369,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="64" x14ac:dyDescent="0.35">
@@ -1907,7 +2377,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1915,10 +2385,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1926,15 +2396,15 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="96" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>313</v>
+        <v>184</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2014,7 +2484,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>194</v>
+        <v>269</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2022,7 +2492,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>270</v>
+        <v>194</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2078,7 +2548,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>201</v>
+        <v>270</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2086,7 +2556,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>271</v>
+        <v>201</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2096,15 +2566,15 @@
       <c r="B89" s="1" t="s">
         <v>202</v>
       </c>
+      <c r="C89" s="1" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="90" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C90" s="1" t="s">
         <v>204</v>
       </c>
     </row>
@@ -2203,6 +2673,9 @@
       <c r="B102" s="1" t="s">
         <v>216</v>
       </c>
+      <c r="C102" s="1" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="103" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
@@ -2212,16 +2685,13 @@
         <v>217</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="C104" s="1" t="s">
         <v>219</v>
       </c>
@@ -2230,7 +2700,7 @@
       <c r="A105" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="B105" s="1" t="s">
         <v>220</v>
       </c>
     </row>
@@ -2258,23 +2728,23 @@
         <v>223</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:3" ht="64" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+        <v>271</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2316,15 +2786,15 @@
       <c r="B115" s="1" t="s">
         <v>229</v>
       </c>
+      <c r="C115" s="1" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="116" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C116" s="1" t="s">
         <v>231</v>
       </c>
     </row>
@@ -2365,7 +2835,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>236</v>
+        <v>173</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2373,7 +2843,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>174</v>
+        <v>236</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2493,25 +2963,25 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="64" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+        <v>251</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C139" s="1" t="s">
         <v>253</v>
       </c>
     </row>
@@ -2560,7 +3030,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="32" x14ac:dyDescent="0.35">
@@ -2576,7 +3046,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="32" x14ac:dyDescent="0.35">
@@ -2624,7 +3094,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>265</v>
+        <v>307</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="32" x14ac:dyDescent="0.35">
@@ -2632,16 +3102,13 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B155" s="1" t="s">
-        <v>310</v>
-      </c>
     </row>
     <row r="156" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
@@ -2683,12 +3150,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:3" ht="64" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>164</v>
       </c>
@@ -2697,6 +3164,9 @@
       <c r="A166" s="1" t="s">
         <v>165</v>
       </c>
+      <c r="B166" s="1" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="167" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
@@ -2721,16 +3191,631 @@
       <c r="B169" s="1" t="s">
         <v>268</v>
       </c>
+      <c r="C169" s="1" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="170" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
-        <v>169</v>
+        <v>326</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>269</v>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A171" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A172" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A173" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A174" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A175" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A176" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A177" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A178" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A179" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A180" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A181" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A182" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A183" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A184" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A185" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="64" x14ac:dyDescent="0.35">
+      <c r="A186" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A187" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="64" x14ac:dyDescent="0.35">
+      <c r="A188" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A189" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A190" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A191" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="64" x14ac:dyDescent="0.35">
+      <c r="A192" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A193" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A194" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+      <c r="A195" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A196" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A197" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A198" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+      <c r="A199" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+      <c r="A200" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+      <c r="A201" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+      <c r="A202" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="128" x14ac:dyDescent="0.35">
+      <c r="A203" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+      <c r="A204" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+      <c r="A205" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="96" x14ac:dyDescent="0.35">
+      <c r="A206" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A207" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A208" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A209" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A210" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+      <c r="A211" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A212" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+      <c r="A213" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+      <c r="A214" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+      <c r="A215" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+      <c r="A216" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+      <c r="A217" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+      <c r="A218" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A219" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+      <c r="A220" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A221" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A222" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A223" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+      <c r="A224" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A225" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A226" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+      <c r="A227" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A228" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A229" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+      <c r="A230" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+      <c r="A231" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A232" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A233" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A234" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A235" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A236" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A237" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A238" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A239" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A240" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A241" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A242" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="64" x14ac:dyDescent="0.35">
+      <c r="A243" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="64" x14ac:dyDescent="0.35">
+      <c r="A244" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="64" x14ac:dyDescent="0.35">
+      <c r="A245" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>478</v>
       </c>
     </row>
   </sheetData>

--- a/sigml2check/Avatar sentences.xlsx
+++ b/sigml2check/Avatar sentences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lykeesselink/Dropbox/Uni/Website/signlab/sigml2check/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46643094-1503-EA42-94C0-E85E5DFC2DA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C282F76-0E20-2A48-A75E-11115ACDE2FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{9714BCE5-7BEA-824E-A877-BA3689A09BF2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="494">
   <si>
     <t>['Ik ga U over ... minuten meer uitleggen.',</t>
   </si>
@@ -581,9 +581,6 @@
     <t>KWEEK</t>
   </si>
   <si>
-    <t>OVER</t>
-  </si>
-  <si>
     <t>IK INFUUS CONTROLEREN IK</t>
   </si>
   <si>
@@ -878,9 +875,6 @@
     <t>SCINTIGRAFIE GOED</t>
   </si>
   <si>
-    <t>SCINTIGRAFIE</t>
-  </si>
-  <si>
     <t>SCINTIGRAFIE NIET_HELEMAAL_GOED</t>
   </si>
   <si>
@@ -1325,12 +1319,6 @@
     <t>U NEUS MOND NU ZUURSTOF_TOEDIENEN</t>
   </si>
   <si>
-    <t>VANDAAG ONDERZOEK_02 OF GESPREK NIET_MEER</t>
-  </si>
-  <si>
-    <t>NIET_MEER?</t>
-  </si>
-  <si>
     <t>ONTWIKKELING</t>
   </si>
   <si>
@@ -1482,6 +1470,51 @@
   </si>
   <si>
     <t>NIET_GOED -&gt; SLECHT?</t>
+  </si>
+  <si>
+    <t>SCINTIGRAFIE -&gt; vingerspellen</t>
+  </si>
+  <si>
+    <t>OVER?</t>
+  </si>
+  <si>
+    <t>VANDAAG ONDERZOEK_02 OF GESPREK KLAAR</t>
+  </si>
+  <si>
+    <t>1 UUR, 2 UUR, …</t>
+  </si>
+  <si>
+    <t>kwart voor</t>
+  </si>
+  <si>
+    <t>KWART_VOOR</t>
+  </si>
+  <si>
+    <t>kwart over</t>
+  </si>
+  <si>
+    <t>KWART_OVER</t>
+  </si>
+  <si>
+    <t>half</t>
+  </si>
+  <si>
+    <t>HALF</t>
+  </si>
+  <si>
+    <t>over</t>
+  </si>
+  <si>
+    <t>voor</t>
+  </si>
+  <si>
+    <t>OVER_TIJD</t>
+  </si>
+  <si>
+    <t>VOOR_TIJD</t>
+  </si>
+  <si>
+    <t>OVER_TIJD -&gt; van KWART_OVER</t>
   </si>
 </sst>
 </file>
@@ -1851,10 +1884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B748D48-8179-CE40-8734-2A60592969FC}">
-  <dimension ref="A1:C245"/>
+  <dimension ref="A1:C250"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
@@ -1869,7 +1902,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>171</v>
@@ -1885,7 +1918,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1911,7 +1944,7 @@
         <v>169</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1927,7 +1960,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1935,7 +1968,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1943,7 +1976,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>172</v>
@@ -1954,7 +1987,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1962,7 +1995,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1970,7 +2003,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1978,7 +2011,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1986,7 +2019,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -1994,7 +2027,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2002,7 +2035,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2010,7 +2043,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2018,7 +2051,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="64" x14ac:dyDescent="0.35">
@@ -2034,7 +2067,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="64" x14ac:dyDescent="0.35">
@@ -2042,7 +2075,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2050,7 +2083,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2128,7 +2161,7 @@
         <v>179</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2136,7 +2169,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2144,7 +2177,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2152,7 +2185,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2160,7 +2193,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2168,7 +2201,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2176,18 +2209,18 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="64" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>281</v>
+        <v>479</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2195,7 +2228,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2203,7 +2236,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2211,7 +2244,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2219,7 +2252,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2227,7 +2260,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2235,7 +2268,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2243,7 +2276,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2251,7 +2284,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2259,7 +2292,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2267,7 +2300,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2275,7 +2308,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2283,7 +2316,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>181</v>
@@ -2294,7 +2327,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2302,7 +2335,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2310,7 +2343,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2318,7 +2351,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2326,7 +2359,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2334,7 +2367,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>180</v>
@@ -2345,7 +2378,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="64" x14ac:dyDescent="0.35">
@@ -2353,7 +2386,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="64" x14ac:dyDescent="0.35">
@@ -2361,7 +2394,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="64" x14ac:dyDescent="0.35">
@@ -2369,7 +2402,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="64" x14ac:dyDescent="0.35">
@@ -2377,7 +2410,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2385,10 +2418,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>182</v>
+        <v>480</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2396,7 +2429,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2404,7 +2437,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2412,7 +2445,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2420,7 +2453,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2428,7 +2461,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2436,7 +2469,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2444,7 +2477,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2452,7 +2485,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2460,7 +2493,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2468,7 +2501,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2476,7 +2509,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2484,7 +2517,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2492,7 +2525,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2500,7 +2533,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2508,7 +2541,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2516,7 +2549,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2524,7 +2557,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2532,7 +2565,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2540,7 +2573,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2548,7 +2581,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2556,7 +2589,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2564,10 +2597,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2575,7 +2608,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2583,7 +2616,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2591,7 +2624,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2599,7 +2632,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2607,7 +2640,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2615,7 +2648,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2623,7 +2656,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2631,7 +2664,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2639,7 +2672,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2647,7 +2680,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2655,7 +2688,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2663,7 +2696,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2671,10 +2704,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2682,10 +2715,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>217</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2693,7 +2726,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2701,7 +2734,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2709,7 +2742,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2717,7 +2750,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2725,7 +2758,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="64" x14ac:dyDescent="0.35">
@@ -2733,10 +2766,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2744,7 +2777,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2752,7 +2785,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2760,7 +2793,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2768,7 +2801,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2776,7 +2809,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2784,10 +2817,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C115" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2795,7 +2828,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2803,7 +2836,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2811,7 +2844,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2819,7 +2852,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2827,7 +2860,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2843,7 +2876,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2851,7 +2884,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2859,7 +2892,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2867,7 +2900,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2875,7 +2908,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2883,7 +2916,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2891,7 +2924,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2899,7 +2932,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2907,7 +2940,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2915,7 +2948,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2923,7 +2956,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2931,7 +2964,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="32" x14ac:dyDescent="0.35">
@@ -2939,883 +2972,929 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
-        <v>134</v>
+        <v>490</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+        <v>492</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="64" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
-        <v>135</v>
+        <v>489</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>250</v>
+        <v>491</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
-        <v>136</v>
+        <v>483</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
-        <v>137</v>
+        <v>485</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>252</v>
+        <v>486</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
-        <v>138</v>
+        <v>487</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>253</v>
+        <v>488</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="64" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>307</v>
+        <v>259</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>308</v>
+        <v>260</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A166" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>265</v>
+        <v>160</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>266</v>
+        <v>161</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A168" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="64" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>268</v>
+        <v>163</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>402</v>
+        <v>164</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A171" s="1" t="s">
-        <v>327</v>
+        <v>165</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>403</v>
+        <v>264</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A172" s="1" t="s">
-        <v>328</v>
+        <v>166</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>404</v>
+        <v>265</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A173" s="1" t="s">
-        <v>329</v>
+        <v>167</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>405</v>
+        <v>266</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A174" s="1" t="s">
-        <v>330</v>
+        <v>168</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>406</v>
+        <v>267</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A175" s="1" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A176" s="1" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A177" s="1" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A178" s="1" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" ht="64" x14ac:dyDescent="0.35">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" ht="64" x14ac:dyDescent="0.35">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="64" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" ht="64" x14ac:dyDescent="0.35">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="64" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+        <v>345</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="64" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>428</v>
+        <v>346</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A198" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+        <v>347</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A199" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>431</v>
+        <v>348</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="64" x14ac:dyDescent="0.35">
       <c r="A200" s="1" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A201" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+        <v>350</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" ht="128" x14ac:dyDescent="0.35">
+        <v>351</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A203" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>436</v>
+        <v>352</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="64" x14ac:dyDescent="0.35">
       <c r="A204" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>437</v>
+        <v>353</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="64" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" ht="96" x14ac:dyDescent="0.35">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="64" x14ac:dyDescent="0.35">
       <c r="A206" s="1" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="64" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="128" x14ac:dyDescent="0.35">
       <c r="A208" s="1" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="64" x14ac:dyDescent="0.35">
       <c r="A209" s="1" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="64" x14ac:dyDescent="0.35">
       <c r="A210" s="1" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="96" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>444</v>
+        <v>435</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A214" s="1" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A215" s="1" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>480</v>
+        <v>438</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="64" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="64" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+        <v>441</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="64" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="64" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="64" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="64" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="64" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="64" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="64" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+        <v>454</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="64" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="64" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="64" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A243" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A244" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A245" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A246" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A247" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="64" x14ac:dyDescent="0.35">
+      <c r="A248" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="64" x14ac:dyDescent="0.35">
+      <c r="A249" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B242" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" ht="64" x14ac:dyDescent="0.35">
-      <c r="A243" s="1" t="s">
+      <c r="B249" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="64" x14ac:dyDescent="0.35">
+      <c r="A250" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B243" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" ht="64" x14ac:dyDescent="0.35">
-      <c r="A244" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" ht="64" x14ac:dyDescent="0.35">
-      <c r="A245" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>478</v>
+      <c r="B250" s="1" t="s">
+        <v>474</v>
       </c>
     </row>
   </sheetData>

--- a/sigml2check/Avatar sentences.xlsx
+++ b/sigml2check/Avatar sentences.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lykeesselink/Dropbox/Uni/Website/signlab/sigml2check/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C282F76-0E20-2A48-A75E-11115ACDE2FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA393A92-DB8E-7343-956B-D0DFB340417E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{9714BCE5-7BEA-824E-A877-BA3689A09BF2}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{9714BCE5-7BEA-824E-A877-BA3689A09BF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1913,7 +1913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>

--- a/sigml2check/Avatar sentences.xlsx
+++ b/sigml2check/Avatar sentences.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lykeesselink/Dropbox/Uni/Website/signlab/sigml2check/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA393A92-DB8E-7343-956B-D0DFB340417E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67199D84-4FCF-9444-BC3D-D57B153564BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{9714BCE5-7BEA-824E-A877-BA3689A09BF2}"/>
+    <workbookView xWindow="44020" yWindow="580" windowWidth="28800" windowHeight="21020" xr2:uid="{9714BCE5-7BEA-824E-A877-BA3689A09BF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="531">
   <si>
     <t>['Ik ga U over ... minuten meer uitleggen.',</t>
   </si>
@@ -95,15 +95,6 @@
     <t xml:space="preserve"> 'De schildklierwaardes te laag.',</t>
   </si>
   <si>
-    <t xml:space="preserve"> 'U krijgt andere medicijnen. Dit zijn medicijnen via infuus.',</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'U krijgt andere medicijnen. Dit zijn medicijnen via tabletten.',</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'U krijgt andere medicijnen. Dit zijn medicijnen via drankje.',</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 'Uw meetwaardes op de monitor verbeteren.',</t>
   </si>
   <si>
@@ -140,9 +131,6 @@
     <t xml:space="preserve"> 'De röntgenfoto is niet helemaal goed.',</t>
   </si>
   <si>
-    <t xml:space="preserve"> 'De röntgenfoto is niet goed.',</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 'De MRI is goed.',</t>
   </si>
   <si>
@@ -236,9 +224,6 @@
     <t xml:space="preserve"> 'Uw bloeddruk is … over…',</t>
   </si>
   <si>
-    <t xml:space="preserve"> 'Ik kom het infuus controleren (of het nog goed loopt).',</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 'Tablet',</t>
   </si>
   <si>
@@ -506,30 +491,12 @@
     <t xml:space="preserve"> 'Om ongeveer *tijdstip* wordt bloed geprikt.',</t>
   </si>
   <si>
-    <t xml:space="preserve"> 'We gaan elke dag bloed afnemen.',</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 'We gaan om de dag bloed afnemen.',</t>
   </si>
   <si>
-    <t xml:space="preserve"> 'We gaan op maandag, woensdag en vrijdag bloed afnemen.',</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'We gaan 1x per week bloed afnemen.',</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 'We gaan 2x per week bloed afnemen.',</t>
   </si>
   <si>
-    <t xml:space="preserve"> 'U moet nuchter blijven dus U mag niet eten tot *tijdstip*.',</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'U moet nuchter blijven dus U mag niet eten tot het onderzoek.',</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 'U moet nuchter blijven dus U mag niet eten tot de operatie.',</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 'Honger',</t>
   </si>
   <si>
@@ -539,9 +506,6 @@
     <t xml:space="preserve"> 'Tolk gebarentaal',</t>
   </si>
   <si>
-    <t xml:space="preserve"> 'Schrijftolk']</t>
-  </si>
-  <si>
     <t>U LEVER WAARDE TE HOOG U</t>
   </si>
   <si>
@@ -557,12 +521,6 @@
     <t>HART</t>
   </si>
   <si>
-    <t>U ANDERE MEDICIJNEN INDEX_3A KRIJGEN U. INDEX_3A VIA INFUUS</t>
-  </si>
-  <si>
-    <t>U CORONA TEST UITSLAG VANMIDDAG</t>
-  </si>
-  <si>
     <t>CORONA TEST UITSLAG VERTRAGING</t>
   </si>
   <si>
@@ -572,18 +530,12 @@
     <t>RONTGENFOTO NIET_HELEMAAL_GOED</t>
   </si>
   <si>
-    <t>RONTGENFOTO NIET GOED</t>
-  </si>
-  <si>
     <t>BOT</t>
   </si>
   <si>
     <t>KWEEK</t>
   </si>
   <si>
-    <t>IK INFUUS CONTROLEREN IK</t>
-  </si>
-  <si>
     <t>TABLET</t>
   </si>
   <si>
@@ -620,30 +572,18 @@
     <t>AFDELING</t>
   </si>
   <si>
-    <t>EERSTE HULP</t>
-  </si>
-  <si>
     <t>INTENSIVE_CARE</t>
   </si>
   <si>
     <t>REVALIDATIE</t>
   </si>
   <si>
-    <t>ARTS AFDELING INTENSIVE_CARE</t>
-  </si>
-  <si>
     <t>INTERNIST</t>
   </si>
   <si>
     <t>LONGARTS</t>
   </si>
   <si>
-    <t>HART ARTS</t>
-  </si>
-  <si>
-    <t>mouth pic</t>
-  </si>
-  <si>
     <t>DERMATOLOOG</t>
   </si>
   <si>
@@ -779,27 +719,9 @@
     <t>UUR</t>
   </si>
   <si>
-    <t>… INDEX_3A … INDEX_3B TUSSEN</t>
-  </si>
-  <si>
     <t>VANMIDDAG</t>
   </si>
   <si>
-    <t>MORGEN_VOLGENDE_DAG</t>
-  </si>
-  <si>
-    <t>klopt niet helemaal</t>
-  </si>
-  <si>
-    <t>MORGEN_VOLGENDE_DAG OCHTEND_01</t>
-  </si>
-  <si>
-    <t>MORGEN_VOLGENDE_DAG MIDDAG_01</t>
-  </si>
-  <si>
-    <t>MORGEN_VOLGENDE_DAG  AVOND_01</t>
-  </si>
-  <si>
     <t>OVERMORGEN</t>
   </si>
   <si>
@@ -812,21 +734,6 @@
     <t>MAAND</t>
   </si>
   <si>
-    <t>ARTS KOMEN ONGEVEER</t>
-  </si>
-  <si>
-    <t>FYSIOTHERAPEUT KOMEN ONGEVEER …</t>
-  </si>
-  <si>
-    <t>IK TERUG KOMEN ONGEVEER …</t>
-  </si>
-  <si>
-    <t>ETEN KOMEN ONGEVEER …</t>
-  </si>
-  <si>
-    <t>CT_SCAN ONGEVEER …</t>
-  </si>
-  <si>
     <t>HONGER_HEBBEN</t>
   </si>
   <si>
@@ -839,21 +746,6 @@
     <t>SCHRIJFTOLK</t>
   </si>
   <si>
-    <t>HUIS ARTS</t>
-  </si>
-  <si>
-    <t>ZAAL_02 ARTS</t>
-  </si>
-  <si>
-    <t>PIJN_01</t>
-  </si>
-  <si>
-    <t>02 ook goed, maar gebaar niet</t>
-  </si>
-  <si>
-    <t>VANAVOND_01</t>
-  </si>
-  <si>
     <t>MRI GOED</t>
   </si>
   <si>
@@ -905,9 +797,6 @@
     <t>ECHO VERSLECHTERD</t>
   </si>
   <si>
-    <t>ECHO NIET GOED</t>
-  </si>
-  <si>
     <t>BLOED KWEEK GOED</t>
   </si>
   <si>
@@ -950,18 +839,6 @@
     <t>TE?, WAARDE</t>
   </si>
   <si>
-    <t>MRI_SCAN ONGEVEER …</t>
-  </si>
-  <si>
-    <t>RONTGENFOTO ONGEVEER …</t>
-  </si>
-  <si>
-    <t>OVER .. MINUUT IK U UITLEGGEN</t>
-  </si>
-  <si>
-    <t>OVER .. MINUUT ARTS INDEX_3A U UITLEGGEN INDEX_3A</t>
-  </si>
-  <si>
     <t>U NIER WAARDE TE HOOG U</t>
   </si>
   <si>
@@ -998,12 +875,6 @@
     <t>U SCHILDKLIER WAARDE TE LAAG U</t>
   </si>
   <si>
-    <t>U ANDERE MEDICIJNEN INDEX_3A KRIJGEN U. INDEX_3A VIA TABLET</t>
-  </si>
-  <si>
-    <t>U ANDERE MEDICIJNEN INDEX_3A KRIJGEN U. INDEX_3A VIA DRINKEN</t>
-  </si>
-  <si>
     <t>MEET, MONITOR</t>
   </si>
   <si>
@@ -1085,18 +956,9 @@
     <t>Wat voor soort pijn heeft U? Drukkend, stekend, krampend of anders omschrijven?:"",</t>
   </si>
   <si>
-    <t>Ik kom het infuus controleren (of het nog goed loopt).:"",</t>
-  </si>
-  <si>
     <t>U moet in bed blijven.:"",</t>
   </si>
   <si>
-    <t>Ik ga nu het zuurstof kapje over uw neus en mond doen.:"",</t>
-  </si>
-  <si>
-    <t>Er gebeuren vandaag geen onderzoeken of gesprekken meer.:"",</t>
-  </si>
-  <si>
     <t>De COVID-19 test is negatief, dit betekent dat U waarschijnlijk geen Corona heeft.:"",</t>
   </si>
   <si>
@@ -1109,15 +971,6 @@
     <t>We gaan in het bloed testen of U antistoffen tegen Corona heeft. Als U antistoffen heeft betekent dit dat U nu Corona heeft of dat U Corona heeft gehad in het verleden.:"",</t>
   </si>
   <si>
-    <t>De Coronatest in het bloed is negatief: u heeft geen antistoffen tegen Corona.:"",</t>
-  </si>
-  <si>
-    <t>De Coronatest in het bloed is positief: u heeft wel antistoffen tegen Corona.:"",</t>
-  </si>
-  <si>
-    <t>Met dit recept kunt U medicijnen ophalen bij de apotheek.:"",</t>
-  </si>
-  <si>
     <t>Bent U ergens allergisch voor?:"",</t>
   </si>
   <si>
@@ -1136,24 +989,12 @@
     <t>Rookt U?:"",</t>
   </si>
   <si>
-    <t>Bent U weleens eerder (voor U zelf) in het ziekenhuis geweest?:"",</t>
-  </si>
-  <si>
-    <t>Welk ziekenhuis was U toen en waarom?:"",</t>
-  </si>
-  <si>
-    <t>Wanneer was dat?:"",</t>
-  </si>
-  <si>
     <t>Zijn er mensen in Uw omgeving ziek?:"",</t>
   </si>
   <si>
     <t>Welke apotheek komt U?:"",</t>
   </si>
   <si>
-    <t>Wie is uw huisarts?:"",</t>
-  </si>
-  <si>
     <t>Wat is uw geboortedatum?:"",</t>
   </si>
   <si>
@@ -1169,9 +1010,6 @@
     <t>Moet U naar de wc?:"",</t>
   </si>
   <si>
-    <t>Kan ik U helpen?:"",</t>
-  </si>
-  <si>
     <t>Ik ga U wassen.:"",</t>
   </si>
   <si>
@@ -1190,9 +1028,6 @@
     <t>Dit is de alarmknop, als U hierop drukt dan komt er iemand naar U toe.:"",</t>
   </si>
   <si>
-    <t>Wilt U een tv met teletekst zodat U de ondertiteling kunt aanzetten?:"",</t>
-  </si>
-  <si>
     <t>Wat wilt U eten?:"",</t>
   </si>
   <si>
@@ -1226,24 +1061,6 @@
     <t>Wij helpen U.:"",</t>
   </si>
   <si>
-    <t>Heeft U op dit moment een huisgenoot met koorts en/ of benauwdheidsklachten?:"",</t>
-  </si>
-  <si>
-    <t>Heeft U de afgelopen 7 dagen een Corontest gehad? Zo ja, was deze positief? (dus dat je het virus hebt/had):"",</t>
-  </si>
-  <si>
-    <t>Heeft U een huisgenoot/ gezinslid met klachten van het Coronavirus?:"",</t>
-  </si>
-  <si>
-    <t>GOED_01 MORGEN_01_OCHTEND_01</t>
-  </si>
-  <si>
-    <t>GOED_01 MIDDAG_01</t>
-  </si>
-  <si>
-    <t>GOED_01 AVOND_01</t>
-  </si>
-  <si>
     <t>TOT ZIENS</t>
   </si>
   <si>
@@ -1253,237 +1070,48 @@
     <t>U GOED SLAPEN U?</t>
   </si>
   <si>
-    <t>EET LEKKER_02</t>
-  </si>
-  <si>
-    <t>IK LATER TERUGKOMEN</t>
-  </si>
-  <si>
-    <t>IK EVEN WEG_/_WEG_ZIJN_02</t>
-  </si>
-  <si>
-    <t>SLAPEN LEKKER_02</t>
-  </si>
-  <si>
-    <t>SORRY TIJD_HEBBEN_NIET IK NIET</t>
-  </si>
-  <si>
-    <t>ARTS PERSOON KOMEN NIEUW INFUUS U</t>
-  </si>
-  <si>
-    <t>VERPLEEGKUNDIGE PERSOON KOMEN U NIEUW INFUUS</t>
-  </si>
-  <si>
-    <t>COASSISTENT KOMEN BLOED PRIKKEN</t>
-  </si>
-  <si>
-    <t>COLLEGA PERSOON KOMEN BLOED PRIKKEN</t>
-  </si>
-  <si>
-    <t>SORRY LUKKEN:_HET_WIL_MAAR_NIET_LUKKEN U INFUUS [PAUZE] IK COLLEGA ROEPEN_3</t>
-  </si>
-  <si>
     <t>IK NU U NIEUW INFUUS</t>
   </si>
   <si>
-    <t>LABORANT KOMEN BLOED PRIKKEN</t>
-  </si>
-  <si>
     <t>BLOED UITSLAGEN GOED</t>
   </si>
   <si>
     <t>BLOED UITSLAGEN NIET_HELEMAAL_GOED</t>
   </si>
   <si>
-    <t>CT_SCAN INDEX_3B UITSLAG GOED</t>
-  </si>
-  <si>
-    <t>INDEX_3B CT_SCAN INDEX_3B UITSLAG NIET_HELEMAAL_GOED</t>
-  </si>
-  <si>
-    <t>PIJN HEBBEN U?</t>
-  </si>
-  <si>
-    <t>U LICHAAM U PIJN WAAR</t>
-  </si>
-  <si>
-    <t>U PIJN WAT? VOELEN DRUKKEND OF STEKEND OF KRAMPEND OF ANDERS? ASTJEBLIEFT VERTELLEN_2_1</t>
-  </si>
-  <si>
-    <t>U INFUUS IK CONTROLE_A GOED ONTWIKKELING</t>
-  </si>
-  <si>
-    <t>ASTUBLIEFT U BED BLIJVEN</t>
-  </si>
-  <si>
-    <t>U NEUS MOND NU ZUURSTOF_TOEDIENEN</t>
-  </si>
-  <si>
-    <t>ONTWIKKELING</t>
-  </si>
-  <si>
-    <t>CORONA TEST UITSLAG NEGATIEF, BETEKENIS U CORONA HEBBEN WAARSCHIJNLIJK NIET</t>
-  </si>
-  <si>
-    <t>SOMS TEST INDEX_3B FOUT, WIJ MEER ONDERZOEK MOETEN</t>
-  </si>
-  <si>
-    <t>CORONA TEST UISTLAG POSITIEF, BEKEKENIS U CORONA HEBBEN</t>
-  </si>
-  <si>
-    <t>WIJ U BLOED TESTEN ONDERZOEK AANWEZIG ANTISTOFFEN [PAUZE] ALS AANWEZIG ANTISTOFFEN, BETEKENIS U NU CORONA AANWEZIG OF VERLEDEN KLAAR</t>
-  </si>
-  <si>
-    <t>CORONA TEST BLOED NEGATIEF [PAUZE] ANTISTOFFEN TEGEN CORONA HEBBEN U NIET</t>
-  </si>
-  <si>
-    <t>CORONA TEST BLOED POSITIEF [PAUZE] ANTISTOFFEN TEGEN CORONA HEBBEN U</t>
-  </si>
-  <si>
-    <t>INDEX_HAND RECEPT U KUNNEN APOTHEEK INDEX_3A GAAN_1_3A U RECEPT GEVEN_1_3A MEDICIJN HALEN_3A_1</t>
-  </si>
-  <si>
-    <t>U ALLERGIE HEBBEN_BEZIT?</t>
-  </si>
-  <si>
-    <t>U GEBRUIKEN MEDICIJNEN U?</t>
-  </si>
-  <si>
-    <t>U MEDICIJNEN GEBRUIKEN U WELKE?</t>
-  </si>
-  <si>
     <t>U ROKEN U?</t>
   </si>
   <si>
-    <t>U MEDICIJNEN U [PAUZE] MISSCHIEN PERSOON THUIS INDEX_3 FOTO KUNNEN INDEX_3</t>
-  </si>
-  <si>
-    <t>U GELEDEN_01_EEN_TIJD_GELEDEN ZIEKENHUIS KLAAR U?</t>
-  </si>
-  <si>
-    <t>Klaar mondbeeld moet anders</t>
-  </si>
-  <si>
-    <t>U EERDER ZIEKENHUIS NAAR_BINNEN U INDEX_3 WAAR? NAAR_BINNEN WAAROM?</t>
-  </si>
-  <si>
-    <t>U OMGEVING U (??) MENSEN PERSONEN_VEEL INDEXEN_VEEL ZIEK AANWEZIG_VEEL PALM_OMHOOG</t>
-  </si>
-  <si>
-    <t>U GAAN_NAAR APOTHEEK INDEX_3 WAAR INDEX_3 NAAM WAT PALM_OMHOOG</t>
-  </si>
-  <si>
-    <t>U GEBOORTE_DATUM WAT</t>
-  </si>
-  <si>
-    <t>U HUISARTS PERSOON INDEX_3 WIE INDEX_3 PALM_OMHOOG</t>
-  </si>
-  <si>
     <t>U DIEET WENSEN HEBBEN U? [PAUZE] VOORBEELD VEGETARISCH VEGANISTISCH PALM_OMHOOG</t>
   </si>
   <si>
-    <t>GEHOORAPPARAAT OF CI HEBBEN_BEZIT?</t>
-  </si>
-  <si>
-    <t>IK NODIG GAAN_NAAR WC IK</t>
-  </si>
-  <si>
     <t>U NODIG GAAN WC U?</t>
   </si>
   <si>
-    <t>PALM_OMHOOG KUNNEN IK HELPEN U PALM_OMHOOG?</t>
-  </si>
-  <si>
     <t>NU IK U WASSEN</t>
   </si>
   <si>
-    <t>U DOUCHEN HELPEN_1_2</t>
-  </si>
-  <si>
     <t>HELPEN_1_2</t>
   </si>
   <si>
-    <t>DOUCHE BINNEN STOEL AANWEZIG [PAUZE] AUSTUBLIEFT U HIER ZITTEN</t>
-  </si>
-  <si>
     <t>U WILLEN VIDEOBELLEN U?</t>
   </si>
   <si>
-    <t>U NODIG HELPEN U VIDEOBELLEN U?</t>
-  </si>
-  <si>
     <t>INDEX_3A ALARM [PAUZE] ALS U INDEX_3A DRUKKEN [PAUZE] PERSOON KOMEN</t>
   </si>
   <si>
-    <t>U WILLEN TV KIJKEN ONDERTITELING? [PAUZE, KNIKKEN] WIJ REGELEN</t>
-  </si>
-  <si>
-    <t>ETEN WAT U? ASTJEBLIEFT KAART_3 AANWIJZEN_3 U</t>
-  </si>
-  <si>
-    <t>DRINKEN WAT U? ASTJEBLIEFT KAART_3 AANWIJZEN_3 U</t>
-  </si>
-  <si>
-    <t>U KOUD?</t>
-  </si>
-  <si>
     <t>U WARM?</t>
   </si>
   <si>
-    <t>ETEN WAT U?</t>
-  </si>
-  <si>
-    <t>DRINKEN WAT U?</t>
-  </si>
-  <si>
-    <t>SLAPEN BED NU OMHOOG</t>
-  </si>
-  <si>
-    <t>SLAPEN BED NU OMLAAG</t>
-  </si>
-  <si>
     <t>WIE OPHALEN U?</t>
   </si>
   <si>
-    <t>IK HELPEN U</t>
-  </si>
-  <si>
-    <t>WIJ HELPEN U</t>
-  </si>
-  <si>
-    <t>U NU HEBBEN HUISGENOOT INDEX_3 INDEX_3 VERKOUDEN_ZIJN OF KOORTS?</t>
-  </si>
-  <si>
-    <t>TIJD_TOT_NU 7 DAGEN CORONA TEST PALM_OMHOOG; JA UITSLAG POSITIEF PALM_OMHOOG</t>
-  </si>
-  <si>
-    <t>U HEBBEN HUISGENOOT INDEX_3 CORONA KLACHTEN TELWOORDEN HEBBEN INDEX_3</t>
-  </si>
-  <si>
-    <t>GAAN_1_3A, GEVEN_1_3A HALEN_3A_1</t>
-  </si>
-  <si>
-    <t>U EERDER ZIEKENHUIS NAAR_BINNEN U INDEX_3 WAAR? NAAR_BINNEN WANNEER?</t>
-  </si>
-  <si>
-    <t>U ALLERGIE VOOR WAT?</t>
-  </si>
-  <si>
-    <t>NIET_GOED -&gt; SLECHT?</t>
-  </si>
-  <si>
     <t>SCINTIGRAFIE -&gt; vingerspellen</t>
   </si>
   <si>
     <t>OVER?</t>
   </si>
   <si>
-    <t>VANDAAG ONDERZOEK_02 OF GESPREK KLAAR</t>
-  </si>
-  <si>
-    <t>1 UUR, 2 UUR, …</t>
-  </si>
-  <si>
     <t>kwart voor</t>
   </si>
   <si>
@@ -1514,7 +1142,490 @@
     <t>VOOR_TIJD</t>
   </si>
   <si>
-    <t>OVER_TIJD -&gt; van KWART_OVER</t>
+    <t>OVER .. MINUUT IK U MEER UITLEGGEN</t>
+  </si>
+  <si>
+    <t>*TIJDSTIP* COLLEGA INDEX_3A MEER UITLEGGEN INDEX_3A</t>
+  </si>
+  <si>
+    <t>OVER .. MINUUT COLLEGA INDEX_3A MEER UITLEGGEN INDEX_3A</t>
+  </si>
+  <si>
+    <t>*TIJDSTIP* ARTS INDEX_3A MEER UITLEGGEN INDEX_3A</t>
+  </si>
+  <si>
+    <t>OVER .. MINUUT ARTS INDEX_3A MEER UITLEGGEN INDEX_3A</t>
+  </si>
+  <si>
+    <t>*TIJDSTIP* IK MEER UITLEGGEN</t>
+  </si>
+  <si>
+    <t>U krijgt andere medicijnen.</t>
+  </si>
+  <si>
+    <t>U ANDERE MEDICIJNEN KRIJGEN</t>
+  </si>
+  <si>
+    <t>U krijgt medicijnen via een infuus.</t>
+  </si>
+  <si>
+    <t>U krijgt tabletten.</t>
+  </si>
+  <si>
+    <t>U krijgt een drankje.</t>
+  </si>
+  <si>
+    <t>U MEDICIJNEN KRIJGEN INFUUS</t>
+  </si>
+  <si>
+    <t>U TABLETTEN KRIJGEN</t>
+  </si>
+  <si>
+    <t>U DRANKJE KRIJGEN</t>
+  </si>
+  <si>
+    <t>VERSLECHTEREN</t>
+  </si>
+  <si>
+    <t>U CORONA TEST UITSLAG VANMIDDAG KOMEN</t>
+  </si>
+  <si>
+    <t>U CORONA TEST UITSLAG MORGEN KOMEN</t>
+  </si>
+  <si>
+    <t>U CORONA TEST UITSLAG MORGEN OCHTEND KOMEN</t>
+  </si>
+  <si>
+    <t>U CORONA TEST UITSLAG MORGEN MIDDAG KOMEN</t>
+  </si>
+  <si>
+    <t>U CORONA TEST UITSLAG MORGEN AVOND KOMEN</t>
+  </si>
+  <si>
+    <t>Uw bloeddruk is hoog.</t>
+  </si>
+  <si>
+    <t>Uw bloeddruk is laag</t>
+  </si>
+  <si>
+    <t>*TIJDSTIP* *TIJDSTIP* TUSSEN</t>
+  </si>
+  <si>
+    <t>ONGEVEER *TIJDSTIP* ARTS KOMEN</t>
+  </si>
+  <si>
+    <t>ONGEVEER *TIJDSTIP* FYSIOTHERAPEUT KOMEN</t>
+  </si>
+  <si>
+    <t>ONGEVEER *TIJDSTIP* IK TERUG</t>
+  </si>
+  <si>
+    <t>ONGEVEER *TIJDSTIP* ETEN KOMEN</t>
+  </si>
+  <si>
+    <t>ONGEVEER *TIJDSTIP* CT_SCAN</t>
+  </si>
+  <si>
+    <t>ONGEVEER *TIJDSTIP* MRI SCAN</t>
+  </si>
+  <si>
+    <t>ONGEVEER *TIJDSTIP* RONTGENFOTO</t>
+  </si>
+  <si>
+    <t>ONGEVEER *TIJDSTIP* U ANDERE AFDELING GAAN</t>
+  </si>
+  <si>
+    <t>ONGEVEER *TIJDSTIP* U BLOEDPRIKKEN</t>
+  </si>
+  <si>
+    <t>WIJ ELKE_DAG BLOEDPRIKKEN</t>
+  </si>
+  <si>
+    <t>WIJ BLOEDPRIKKEN OM_DE_TWEE_DAGEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'We gaan op *dag* bloed afnemen.',</t>
+  </si>
+  <si>
+    <t>*DAG* WIJ BLOEDPRIKKEN</t>
+  </si>
+  <si>
+    <t>De uitslag komt op *dag*</t>
+  </si>
+  <si>
+    <t>*DAG* UITSLAG KOMEN</t>
+  </si>
+  <si>
+    <t>U mag op *dag* naar huis</t>
+  </si>
+  <si>
+    <t>nieuwe gloss van binnenkort</t>
+  </si>
+  <si>
+    <t>KOMENDE_TIJD BLOEDPRIKKEN 1 KEER WEEK</t>
+  </si>
+  <si>
+    <t>KOMENDE_TIJD BLOEDPRIKKEN 2 KEER WEEK</t>
+  </si>
+  <si>
+    <t>U moet nuchter blijven.</t>
+  </si>
+  <si>
+    <t>U mag niet eten tot *tijdstip*.',</t>
+  </si>
+  <si>
+    <t>U mag niet eten tot het onderzoek.',</t>
+  </si>
+  <si>
+    <t>U mag niet eten tot de operatie.',</t>
+  </si>
+  <si>
+    <t>ALSTUBLIEFT U NUCHTER BLIJVEN</t>
+  </si>
+  <si>
+    <t>SCHRIJFTOLK (CENTRUM)</t>
+  </si>
+  <si>
+    <t>IK LATER TERUG</t>
+  </si>
+  <si>
+    <t>IK EVEN WEGGAAN</t>
+  </si>
+  <si>
+    <t>SORRY TIJD_HEBBEN_NIET IK</t>
+  </si>
+  <si>
+    <t>ARTS U NIEUW INFUUS</t>
+  </si>
+  <si>
+    <t>VERPLEEGKUNDIGE U NIEUW INFUUS</t>
+  </si>
+  <si>
+    <t>OCHTEND LABORANT KOMEN BLOEDPRIKKEN</t>
+  </si>
+  <si>
+    <t>MIDDAG LABORANT KOMEN BLOEDPRIKKEN</t>
+  </si>
+  <si>
+    <t>COASSISTENT KOMEN BLOEDPRIKKEN</t>
+  </si>
+  <si>
+    <t>COLLEGA KOMEN BLOEDPRIKKEN</t>
+  </si>
+  <si>
+    <t>CT_SCAN UITSLAG GOED</t>
+  </si>
+  <si>
+    <t>CT_SCAN UITSLAG NIET_HELEMAAL_GOED</t>
+  </si>
+  <si>
+    <t>PIJN U?</t>
+  </si>
+  <si>
+    <t>U LICHAAM U PIJN WAAR?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Ik kom het infuus controleren.',</t>
+  </si>
+  <si>
+    <t>Ik ga u nu zuurstof toedienen</t>
+  </si>
+  <si>
+    <t>NU IK U ZUURSTOF_TOEDIENEN</t>
+  </si>
+  <si>
+    <t>Er zijn vandaag geen onderzoeken of gesprekken meer.:"",</t>
+  </si>
+  <si>
+    <t>VANDAAG ONDERZOEK_02 GESPREK KLAAR</t>
+  </si>
+  <si>
+    <t>CORONA TEST UITSLAG NEGATIEF, BETEKENIS WAARSCHIJNLIJK U CORONA HEBBEN_NIET</t>
+  </si>
+  <si>
+    <t>SOMS TEST FOUT [PAUZE] WIJ MEER ONDERZOEKEN</t>
+  </si>
+  <si>
+    <t>WIJ U BLOED ONDERZOEKEN [PAUZE] ANTISTOFFEN AANWEZIG? [PAUZE] ALS ANTISTOFFEN AANWEZIG [PAUZE] BETEKENIS OF NU U CORONA HEBBEN OF VERLEDEN U CORONA HEBBEN</t>
+  </si>
+  <si>
+    <t>PIJN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'We gaan elke dag bloed afnemen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We gaan 1x per week bloed afnemen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'Schrijftolk'</t>
+  </si>
+  <si>
+    <t>Met dit recept kunt U medicijnen ophalen bij de apotheek.</t>
+  </si>
+  <si>
+    <t>Bent U weleens eerder (voor U zelf) in het ziekenhuis geweest?</t>
+  </si>
+  <si>
+    <t>Wie is uw huisarts?</t>
+  </si>
+  <si>
+    <t>Kan ik U helpen?</t>
+  </si>
+  <si>
+    <t>IK INFUUS CONTROLE</t>
+  </si>
+  <si>
+    <t>CORONA TEST NEGATIEF [PAUZE] BETEKENIS U ANTISTOFFEN TEGEN CORONA HEBBEN_NIET</t>
+  </si>
+  <si>
+    <t>CORONA TEST POSITIEF [PAUZE] BETEKENIS U ANTISTOFFEN TEGEN CORONA HEBBEN</t>
+  </si>
+  <si>
+    <t>De Coronatest is positief: u heeft wel antistoffen tegen Corona.:"",</t>
+  </si>
+  <si>
+    <t>De Coronatest is negatief: u heeft geen antistoffen tegen Corona.:"",</t>
+  </si>
+  <si>
+    <t>U ALLERGIE HEBBEN?</t>
+  </si>
+  <si>
+    <t>U ALLERGIE WAT?</t>
+  </si>
+  <si>
+    <t>U MEDICIJNEN GEBRUIKEN WELKE?</t>
+  </si>
+  <si>
+    <t>U MEDICIJNEN GEBRUIKEN?</t>
+  </si>
+  <si>
+    <t>In welk ziekenhuis bent U eerder geweest en waarom?:"",</t>
+  </si>
+  <si>
+    <t>In welk ziekenhuis bent U eerder geweest en wanneer?:"",</t>
+  </si>
+  <si>
+    <t>U GAAN_1_3A APOTHEEK INDEX_3A WAAR INDEX_3A NAAM WAT PALM_OMHOOG</t>
+  </si>
+  <si>
+    <t>U HUISARTS PERSOON INDEX_3A WIE INDEX_3A PALM_OMHOOG</t>
+  </si>
+  <si>
+    <t>U GEBOORTEDATUM WAT</t>
+  </si>
+  <si>
+    <t>U GEHOORAPPARAAT OF CI HEBBEN U?</t>
+  </si>
+  <si>
+    <t>IK NODIG GAAN WC IK</t>
+  </si>
+  <si>
+    <t>IK U HELPEN_1_2 KUNNEN PALM_OMHOOG?</t>
+  </si>
+  <si>
+    <t>U DOUCHEN [PAUZE] IK U HELPEN_1_2</t>
+  </si>
+  <si>
+    <t>U VIDEOBELLEN [PAUZE] NODIG IK U HELPEN_1_2?</t>
+  </si>
+  <si>
+    <t>Wilt U TV kijken met ondertiteling? Dan regelen wij dat.:"",</t>
+  </si>
+  <si>
+    <t>U ETEN WAT?</t>
+  </si>
+  <si>
+    <t>U DRINKEN WAT?</t>
+  </si>
+  <si>
+    <t>U KOUD_HEBBEN?</t>
+  </si>
+  <si>
+    <t>BED NU OMHOOG</t>
+  </si>
+  <si>
+    <t>BED NU OMLAAG</t>
+  </si>
+  <si>
+    <t>WIJ U HELPEN_1_2</t>
+  </si>
+  <si>
+    <t>IK U HELPEN_1_2</t>
+  </si>
+  <si>
+    <t>U NU HEBBEN HUISGENOOT INDEX_3A [PAUZE] INDEX_3A VERKOUDEN_ZIJN OF KOORTS?</t>
+  </si>
+  <si>
+    <t>Heeft U op dit moment een huisgenoot met verkoudheid of koorts?:"",</t>
+  </si>
+  <si>
+    <t>Heeft U de afgelopen 7 dagen een Corontest gehad? Zo ja, was deze positief?:"",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIJD_TOT_NU 7 DAGEN U CORONA TEST PALM_OMHOOG? [PAUZE] JA? [PAUZE] UITSLAG POSITIEF PALM_OMHOOG? </t>
+  </si>
+  <si>
+    <t>U HEBBEN HUISGENOOT INDEX_3A CORONA KLACHTEN TELWOORDEN HEBBEN INDEX_3A</t>
+  </si>
+  <si>
+    <t>Heeft U een huisgenoot met klachten van het Coronavirus?:"",</t>
+  </si>
+  <si>
+    <t>*TIJDSTIP* OCHTEND</t>
+  </si>
+  <si>
+    <t>*TIJDSTIP* MIDDAG</t>
+  </si>
+  <si>
+    <t>*TIJDSTIP* AVOND</t>
+  </si>
+  <si>
+    <t>*Tijdstip* 's ochtends</t>
+  </si>
+  <si>
+    <t>*Tijdstip* 's middags</t>
+  </si>
+  <si>
+    <t>*Tijdstip* 's avonds</t>
+  </si>
+  <si>
+    <t>U BLOEDDRUK OMHOOG</t>
+  </si>
+  <si>
+    <t>U BLOEDDRUK OMLAAG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'De röntgenfoto is slecht.',</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'De MRI is is slecht.',</t>
+  </si>
+  <si>
+    <t>MRI SLECHT</t>
+  </si>
+  <si>
+    <t>RONTGENFOTO SLECHT</t>
+  </si>
+  <si>
+    <t>GEVEN_1_3A HALEN_3A_1</t>
+  </si>
+  <si>
+    <t>uitleggen? CENTRUM</t>
+  </si>
+  <si>
+    <t>ECHO SLECHT</t>
+  </si>
+  <si>
+    <t>CARDIOLOOG</t>
+  </si>
+  <si>
+    <t>VANAVOND</t>
+  </si>
+  <si>
+    <t>EERSTE_HULP</t>
+  </si>
+  <si>
+    <t>ARTS_AFDELING_INTENSIVE_CARE</t>
+  </si>
+  <si>
+    <t>ZAALARTS</t>
+  </si>
+  <si>
+    <t>HUISARTS</t>
+  </si>
+  <si>
+    <t>MORGEN</t>
+  </si>
+  <si>
+    <t>MORGENOCHTEND</t>
+  </si>
+  <si>
+    <t>MORGENMIDDAG</t>
+  </si>
+  <si>
+    <t>MORGENAVOND</t>
+  </si>
+  <si>
+    <t>ONGEVEER *TIJDSTIP* U HUIS GAAN MOGEN</t>
+  </si>
+  <si>
+    <t>*DAG* U HUIS GAAN MOGEN</t>
+  </si>
+  <si>
+    <t>U PIJN WAT? VOELEN DRUKKEND OF STEKEND OF KRAMPEND OF ANDERS? ALSTUBLIEFT VERTELLEN_2_1</t>
+  </si>
+  <si>
+    <t>U ETEN WAT? ALSTUBLIEFT KAART_3 AANWIJZEN_3 U</t>
+  </si>
+  <si>
+    <t>U DRINKEN WAT? ALSTUBLIEFT KAART_3 AANWIJZEN_3 U</t>
+  </si>
+  <si>
+    <t>TOT *TIJDSTIP* ALSTUBLIEFT U NIET_ETEN</t>
+  </si>
+  <si>
+    <t>TOT ONDERZOEK ALSTUBLIEFT U NIET_ETEN</t>
+  </si>
+  <si>
+    <t>TOT OPERATIE ALSTUBLIEFT U NIET_ETEN</t>
+  </si>
+  <si>
+    <t>ALSTUBLIEFT U BED BLIJVEN</t>
+  </si>
+  <si>
+    <t>DOUCHE NAAR_BINNEN STOEL AANWEZIG [PAUZE] ALSTUBLIEFT U ZITTEN</t>
+  </si>
+  <si>
+    <t>GOEDEMORGEN</t>
+  </si>
+  <si>
+    <t>GOEDEMIDDAG</t>
+  </si>
+  <si>
+    <t>GOEDEAVOND</t>
+  </si>
+  <si>
+    <t>SLAAP_LEKKER</t>
+  </si>
+  <si>
+    <t>EET_SMAKELIJK</t>
+  </si>
+  <si>
+    <t>PINCH12</t>
+  </si>
+  <si>
+    <t>SORRY INFUUS LUKKEN_NIET [PAUZE] IK COLLEGA ROEPEN_1_3A</t>
+  </si>
+  <si>
+    <t>onderzoeken, fout</t>
+  </si>
+  <si>
+    <t>CORONA TEST UISTLAG POSITIEF [PAUZE] BETEKENIS U CORONA HEBBEN</t>
+  </si>
+  <si>
+    <t>INDEX_HAND RECEPT U APOTHEEK INDEX_3A GAAN_1_3A U RECEPT GEVEN_1_3A MEDICIJN HALEN_3A_1</t>
+  </si>
+  <si>
+    <t>U MEDICIJNEN [PAUZE] MISSCHIEN PERSOON THUIS INDEX_3A FOTOGRAFEREN INDEX_3A</t>
+  </si>
+  <si>
+    <t>U VERLEDEN ZIEKENHUIS KLAAR U?</t>
+  </si>
+  <si>
+    <t>U EERDER ZIEKENHUIS NAAR_BINNEN U INDEX_3A WAAR? [PAUZE] NAAR_BINNEN WAAROM?</t>
+  </si>
+  <si>
+    <t>U EERDER ZIEKENHUIS NAAR_BINNEN U INDEX_3A WAAR? [PAUZE] NAAR_BINNEN WANNEER?</t>
+  </si>
+  <si>
+    <t>U OMGEVING U MENS PERSONEN_VEEL INDEXEN_VEEL ZIEK AANWEZIG_VEEL PALM_OMHOOG</t>
+  </si>
+  <si>
+    <t>PERSONEN_VEEL INDEXEN_VEEL AANWEZIG_VEEL</t>
+  </si>
+  <si>
+    <t>U WILLEN TELEVISIE KIJKEN ONDERTITELING? [PAUZE, KNIKKEN] WIJ REGELEN</t>
   </si>
 </sst>
 </file>
@@ -1544,15 +1655,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1560,16 +1689,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1884,2017 +2043,2179 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B748D48-8179-CE40-8734-2A60592969FC}">
-  <dimension ref="A1:C250"/>
+  <dimension ref="A1:D259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="C135" sqref="C135"/>
+    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B256" sqref="B256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="105.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="97.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="107.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="107.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="48.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="32" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>307</v>
+      <c r="B1" s="10" t="s">
+        <v>369</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+        <v>159</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="B2" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="64" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="64" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="64" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="32" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="B7" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="32" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="B8" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" ht="32" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="B9" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="B10" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" ht="32" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="B11" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="32" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="B12" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" ht="32" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="B13" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" ht="32" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="B14" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" ht="32" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+      <c r="B15" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" ht="32" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>316</v>
-      </c>
+      <c r="B16" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>317</v>
-      </c>
+      <c r="B17" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>318</v>
-      </c>
+      <c r="B18" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>319</v>
-      </c>
+      <c r="B19" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="64" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+      <c r="B20" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>377</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>378</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>322</v>
+        <v>381</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>175</v>
-      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>176</v>
+        <v>388</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>478</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>487</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>273</v>
+        <v>490</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>274</v>
+        <v>237</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>275</v>
+        <v>238</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>276</v>
+        <v>239</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>277</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="64" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
+      <c r="B48" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A49" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
+      <c r="B49" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>286</v>
-      </c>
+      <c r="B50" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C50" s="3"/>
     </row>
     <row r="51" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>287</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>288</v>
+        <v>250</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>289</v>
+        <v>251</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>290</v>
+        <v>252</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>181</v>
+        <v>253</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A57" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A59" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C59" s="3"/>
+    </row>
+    <row r="60" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C60" s="3"/>
+    </row>
+    <row r="61" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C61" s="3"/>
+    </row>
+    <row r="62" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A62" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
+      <c r="B62" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C62" s="3"/>
+    </row>
+    <row r="63" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
+      <c r="B63" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+      <c r="A64" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A59" s="1" t="s">
+      <c r="B64" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C64" s="3"/>
+    </row>
+    <row r="65" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+      <c r="A65" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
+      <c r="B65" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C65" s="3"/>
+    </row>
+    <row r="66" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+      <c r="A66" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
+      <c r="B66" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+      <c r="A67" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="64" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
+      <c r="B67" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C67" s="3"/>
+    </row>
+    <row r="68" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+      <c r="A68" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="64" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
+      <c r="B68" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C68" s="3"/>
+    </row>
+    <row r="69" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="64" x14ac:dyDescent="0.35">
-      <c r="A64" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="64" x14ac:dyDescent="0.35">
-      <c r="A65" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="64" x14ac:dyDescent="0.35">
-      <c r="A66" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A67" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A68" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A69" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>183</v>
+      <c r="B69" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>184</v>
+        <v>389</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>185</v>
+        <v>390</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>186</v>
+        <v>430</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>187</v>
+        <v>63</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>188</v>
+        <v>64</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>268</v>
+        <v>173</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A81" s="1" t="s">
+      <c r="B89" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B81" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A82" s="1" t="s">
+      <c r="B90" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A83" s="1" t="s">
+      <c r="B91" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A84" s="1" t="s">
+      <c r="B92" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A85" s="1" t="s">
+      <c r="B93" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A86" s="1" t="s">
+      <c r="B94" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B86" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A87" s="1" t="s">
+      <c r="B95" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B87" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A88" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A89" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A90" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A91" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A92" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A93" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A94" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A95" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A96" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="B96" s="1" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>213</v>
+        <v>90</v>
+      </c>
+      <c r="B100" s="10" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>215</v>
+        <v>92</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>218</v>
+        <v>94</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>219</v>
+        <v>95</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>220</v>
+        <v>96</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A107" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>221</v>
+      <c r="A107" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A108" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+      <c r="A108" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>271</v>
+        <v>199</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>223</v>
+        <v>100</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>226</v>
+        <v>438</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>230</v>
+        <v>106</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A119" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>233</v>
+      <c r="A119" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>238</v>
+        <v>161</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>482</v>
+        <v>223</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
-        <v>490</v>
+        <v>125</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
-        <v>489</v>
+        <v>126</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>493</v>
+        <v>225</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
-        <v>483</v>
+        <v>127</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>484</v>
+        <v>226</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
-        <v>485</v>
+        <v>128</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>486</v>
+        <v>227</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
-        <v>487</v>
+        <v>366</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>488</v>
+        <v>368</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
-        <v>134</v>
+        <v>365</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>248</v>
+        <v>367</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
-        <v>135</v>
+        <v>359</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>249</v>
+        <v>360</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
-        <v>136</v>
+        <v>361</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
-        <v>137</v>
+        <v>363</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>251</v>
+        <v>364</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A144" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>252</v>
-      </c>
+      <c r="A144" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="C144" s="6"/>
     </row>
     <row r="145" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>254</v>
+        <v>495</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>255</v>
+        <v>500</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>256</v>
+        <v>501</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>257</v>
+        <v>502</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>257</v>
+        <v>503</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>263</v>
+        <v>392</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>305</v>
+        <v>393</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>306</v>
+        <v>394</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A160" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="32" x14ac:dyDescent="0.35">
+      <c r="A161" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="32" x14ac:dyDescent="0.35">
+      <c r="A162" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="32" x14ac:dyDescent="0.35">
+      <c r="A163" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="32" x14ac:dyDescent="0.35">
+      <c r="A164" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="32" x14ac:dyDescent="0.35">
+      <c r="A165" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="32" x14ac:dyDescent="0.35">
+      <c r="A166" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="32" x14ac:dyDescent="0.35">
+      <c r="A167" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D167" s="1"/>
+    </row>
+    <row r="168" spans="1:4" ht="32" x14ac:dyDescent="0.35">
+      <c r="A168" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="32" x14ac:dyDescent="0.35">
+      <c r="A169" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="32" x14ac:dyDescent="0.35">
+      <c r="A170" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="32" x14ac:dyDescent="0.35">
+      <c r="A171" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="64" x14ac:dyDescent="0.35">
+      <c r="A172" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="32" x14ac:dyDescent="0.35">
+      <c r="A173" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="32" x14ac:dyDescent="0.35">
+      <c r="A174" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="32" x14ac:dyDescent="0.35">
+      <c r="A175" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="32" x14ac:dyDescent="0.35">
+      <c r="A176" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B176" s="10" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A177" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A178" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A161" s="1" t="s">
+      <c r="B178" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A179" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A162" s="1" t="s">
+      <c r="B179" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A180" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A163" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A164" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A165" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A166" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A167" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A168" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="64" x14ac:dyDescent="0.35">
-      <c r="A169" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A170" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A171" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A172" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A173" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A174" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A175" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A176" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" ht="32" x14ac:dyDescent="0.35">
-      <c r="A177" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" ht="32" x14ac:dyDescent="0.35">
-      <c r="A178" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" ht="32" x14ac:dyDescent="0.35">
-      <c r="A179" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" ht="32" x14ac:dyDescent="0.35">
-      <c r="A180" s="1" t="s">
-        <v>329</v>
-      </c>
       <c r="B180" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" ht="32" x14ac:dyDescent="0.35">
-      <c r="A181" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A181" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
-        <v>331</v>
+        <v>281</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
-        <v>332</v>
+        <v>282</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+        <v>284</v>
+      </c>
+      <c r="B185" s="10" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+        <v>285</v>
+      </c>
+      <c r="B186" s="10" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
-        <v>336</v>
+        <v>286</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
-        <v>337</v>
+        <v>287</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
-        <v>338</v>
+        <v>288</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A190" s="1" t="s">
-        <v>339</v>
+        <v>289</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="64" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A191" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+        <v>290</v>
+      </c>
+      <c r="B191" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A192" s="1" t="s">
-        <v>341</v>
+        <v>291</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
-        <v>342</v>
+        <v>292</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
-        <v>343</v>
+        <v>293</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
-        <v>344</v>
+        <v>294</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
-        <v>345</v>
+        <v>295</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A197" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="64" x14ac:dyDescent="0.35">
+      <c r="A198" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A199" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="64" x14ac:dyDescent="0.35">
+      <c r="A200" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A201" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B197" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A198" s="1" t="s">
+    </row>
+    <row r="202" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A202" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B202" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B198" s="1" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A199" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" ht="64" x14ac:dyDescent="0.35">
-      <c r="A200" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A201" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="C201" s="1" t="s">
+    </row>
+    <row r="203" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A203" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A204" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A205" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A202" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A203" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" ht="64" x14ac:dyDescent="0.35">
-      <c r="A204" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" ht="64" x14ac:dyDescent="0.35">
-      <c r="A205" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B205" s="1" t="s">
+    <row r="206" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A206" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="64" x14ac:dyDescent="0.35">
-      <c r="A206" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" ht="64" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
-        <v>356</v>
+        <v>306</v>
       </c>
       <c r="B207" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A208" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A209" s="1" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" ht="128" x14ac:dyDescent="0.35">
-      <c r="A208" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B208" s="1" t="s">
+      <c r="B209" s="2" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="64" x14ac:dyDescent="0.35">
-      <c r="A209" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B209" s="1" t="s">
+    <row r="210" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="A210" s="1" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" ht="64" x14ac:dyDescent="0.35">
-      <c r="A210" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="B210" s="1" t="s">
+      <c r="B210" s="11" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="96" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:3" ht="64" x14ac:dyDescent="0.35">
       <c r="A211" s="1" t="s">
-        <v>360</v>
+        <v>308</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="C211" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+    </row>
+    <row r="212" spans="1:3" ht="64" x14ac:dyDescent="0.35">
       <c r="A212" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="B212" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B212" s="10" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+      <c r="C212" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="64" x14ac:dyDescent="0.35">
       <c r="A213" s="1" t="s">
-        <v>362</v>
+        <v>310</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A214" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B214" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="129" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A214" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B214" s="7" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" ht="32" x14ac:dyDescent="0.35">
-      <c r="A215" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>438</v>
-      </c>
+      <c r="C214" s="7"/>
+    </row>
+    <row r="215" spans="1:3" s="9" customFormat="1" ht="64" x14ac:dyDescent="0.35">
+      <c r="A215" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B215" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="C215" s="8"/>
     </row>
     <row r="216" spans="1:3" ht="64" x14ac:dyDescent="0.35">
       <c r="A216" s="1" t="s">
-        <v>365</v>
+        <v>449</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="64" x14ac:dyDescent="0.35">
       <c r="A217" s="1" t="s">
-        <v>366</v>
+        <v>442</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+        <v>523</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A218" s="1" t="s">
-        <v>367</v>
+        <v>312</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A219" s="1" t="s">
-        <v>368</v>
+        <v>313</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
-        <v>369</v>
+        <v>314</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A221" s="1" t="s">
-        <v>370</v>
+        <v>315</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="64" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+        <v>316</v>
+      </c>
+      <c r="B222" s="10" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A223" s="1" t="s">
-        <v>372</v>
+        <v>317</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>447</v>
+        <v>348</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A224" s="1" t="s">
-        <v>373</v>
+        <v>443</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>446</v>
+        <v>525</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="64" x14ac:dyDescent="0.35">
       <c r="A225" s="1" t="s">
-        <v>374</v>
+        <v>455</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="64" x14ac:dyDescent="0.35">
       <c r="A226" s="1" t="s">
-        <v>375</v>
+        <v>456</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="64" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+        <v>318</v>
+      </c>
+      <c r="B227" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="64" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
-        <v>377</v>
+        <v>319</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="64" x14ac:dyDescent="0.35">
       <c r="A229" s="1" t="s">
-        <v>378</v>
+        <v>444</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A230" s="1" t="s">
-        <v>379</v>
+        <v>320</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="64" x14ac:dyDescent="0.35">
       <c r="A231" s="1" t="s">
-        <v>380</v>
+        <v>321</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A232" s="1" t="s">
-        <v>381</v>
+        <v>322</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A233" s="1" t="s">
-        <v>382</v>
+        <v>323</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A234" s="1" t="s">
-        <v>383</v>
+        <v>324</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A235" s="1" t="s">
-        <v>384</v>
+        <v>445</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3" ht="64" x14ac:dyDescent="0.35">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
-        <v>385</v>
+        <v>325</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>460</v>
+        <v>351</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A237" s="1" t="s">
-        <v>386</v>
+        <v>326</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3" ht="32" x14ac:dyDescent="0.35">
+        <v>463</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="64" x14ac:dyDescent="0.35">
       <c r="A238" s="1" t="s">
-        <v>387</v>
+        <v>327</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>461</v>
+        <v>513</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
-        <v>388</v>
+        <v>328</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>466</v>
+        <v>353</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="32" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
-        <v>389</v>
+        <v>329</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="64" x14ac:dyDescent="0.35">
       <c r="A241" s="1" t="s">
-        <v>390</v>
+        <v>330</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="64" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
-        <v>391</v>
+        <v>465</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>464</v>
+        <v>530</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
-        <v>392</v>
+        <v>331</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A244" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>468</v>
+        <v>332</v>
+      </c>
+      <c r="B244" s="10" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A245" s="1" t="s">
-        <v>394</v>
+        <v>333</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A246" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>470</v>
+        <v>334</v>
+      </c>
+      <c r="B246" s="10" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="32" x14ac:dyDescent="0.35">
       <c r="A247" s="1" t="s">
-        <v>396</v>
+        <v>335</v>
       </c>
       <c r="B247" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A248" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A249" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A250" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A251" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A252" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A253" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B253" s="1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="64" x14ac:dyDescent="0.35">
-      <c r="A248" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" ht="64" x14ac:dyDescent="0.35">
-      <c r="A249" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B249" s="1" t="s">
+    <row r="254" spans="1:2" ht="64" x14ac:dyDescent="0.35">
+      <c r="A254" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B254" s="1" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="64" x14ac:dyDescent="0.35">
-      <c r="A250" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>474</v>
+    <row r="255" spans="1:2" ht="64" x14ac:dyDescent="0.35">
+      <c r="A255" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="64" x14ac:dyDescent="0.35">
+      <c r="A256" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A257" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A258" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="32" x14ac:dyDescent="0.35">
+      <c r="A259" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>481</v>
       </c>
     </row>
   </sheetData>
